--- a/Timeout details and performance/ACTIVE CONNECTIONS JAMU.xlsx
+++ b/Timeout details and performance/ACTIVE CONNECTIONS JAMU.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1FBDF5-6245-674B-9AB0-1FF92129FD06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CD764-B0B2-F248-9F28-87ECB2DC9BC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="720" windowWidth="17620" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMU" sheetId="6" r:id="rId1"/>
-    <sheet name="05" sheetId="143" r:id="rId2"/>
-    <sheet name="06" sheetId="144" r:id="rId3"/>
-    <sheet name="07" sheetId="145" r:id="rId4"/>
-    <sheet name="08" sheetId="146" r:id="rId5"/>
-    <sheet name="09" sheetId="147" r:id="rId6"/>
+    <sheet name="19" sheetId="143" r:id="rId2"/>
+    <sheet name="20" sheetId="144" r:id="rId3"/>
+    <sheet name="21" sheetId="145" r:id="rId4"/>
+    <sheet name="22" sheetId="146" r:id="rId5"/>
+    <sheet name="23" sheetId="147" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -619,19 +619,19 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43409</c:v>
+                  <c:v>43423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43410</c:v>
+                  <c:v>43424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43411</c:v>
+                  <c:v>43425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43412</c:v>
+                  <c:v>43426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43413</c:v>
+                  <c:v>43427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1202,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43409</v>
+        <v>43423</v>
       </c>
       <c r="B2">
         <v>136</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B3">
         <v>136</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43411</v>
+        <v>43425</v>
       </c>
       <c r="B4">
         <v>136</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43412</v>
+        <v>43426</v>
       </c>
       <c r="B5">
         <v>136</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43413</v>
+        <v>43427</v>
       </c>
       <c r="B6">
         <v>136</v>
